--- a/Excel de prueba.xlsx
+++ b/Excel de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA819211-3758-4072-82EE-6BE009D72616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{407C4294-1491-4A64-8D62-35FD52270500}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -345,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,6 +391,30 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
